--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,10 +94,7 @@
     <t>Itga10</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
+    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.47765198002846</v>
+        <v>0.022591</v>
       </c>
       <c r="H2">
-        <v>5.47765198002846</v>
+        <v>0.067773</v>
       </c>
       <c r="I2">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809983</v>
       </c>
       <c r="J2">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809984</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.337226695344671</v>
+        <v>0.4581533333333334</v>
       </c>
       <c r="N2">
-        <v>0.337226695344671</v>
+        <v>1.37446</v>
       </c>
       <c r="O2">
-        <v>0.1312261122268366</v>
+        <v>0.1471136940986479</v>
       </c>
       <c r="P2">
-        <v>0.1312261122268366</v>
+        <v>0.1471136940986479</v>
       </c>
       <c r="Q2">
-        <v>1.847210475473191</v>
+        <v>0.01035014195333333</v>
       </c>
       <c r="R2">
-        <v>1.847210475473191</v>
+        <v>0.09315127758</v>
       </c>
       <c r="S2">
-        <v>0.125139285144354</v>
+        <v>0.0005590877425885195</v>
       </c>
       <c r="T2">
-        <v>0.125139285144354</v>
+        <v>0.0005590877425885196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.47765198002846</v>
+        <v>0.022591</v>
       </c>
       <c r="H3">
-        <v>5.47765198002846</v>
+        <v>0.067773</v>
       </c>
       <c r="I3">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809983</v>
       </c>
       <c r="J3">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.521637984665968</v>
+        <v>0.5302796666666666</v>
       </c>
       <c r="N3">
-        <v>0.521637984665968</v>
+        <v>1.590839</v>
       </c>
       <c r="O3">
-        <v>0.2029866723557979</v>
+        <v>0.1702735634403321</v>
       </c>
       <c r="P3">
-        <v>0.2029866723557979</v>
+        <v>0.1702735634403321</v>
       </c>
       <c r="Q3">
-        <v>2.857351339563595</v>
+        <v>0.01197954794966666</v>
       </c>
       <c r="R3">
-        <v>2.857351339563595</v>
+        <v>0.107815931547</v>
       </c>
       <c r="S3">
-        <v>0.1935712842618297</v>
+        <v>0.0006471040156365246</v>
       </c>
       <c r="T3">
-        <v>0.1935712842618297</v>
+        <v>0.0006471040156365248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.47765198002846</v>
+        <v>0.022591</v>
       </c>
       <c r="H4">
-        <v>5.47765198002846</v>
+        <v>0.067773</v>
       </c>
       <c r="I4">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809983</v>
       </c>
       <c r="J4">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809984</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.224470663183384</v>
+        <v>0.09003133333333334</v>
       </c>
       <c r="N4">
-        <v>0.224470663183384</v>
+        <v>0.270094</v>
       </c>
       <c r="O4">
-        <v>0.08734899355588835</v>
+        <v>0.0289091905867615</v>
       </c>
       <c r="P4">
-        <v>0.08734899355588835</v>
+        <v>0.0289091905867615</v>
       </c>
       <c r="Q4">
-        <v>1.229572172644765</v>
+        <v>0.002033897851333333</v>
       </c>
       <c r="R4">
-        <v>1.229572172644765</v>
+        <v>0.018305080662</v>
       </c>
       <c r="S4">
-        <v>0.08329737447961391</v>
+        <v>0.0001098658707759437</v>
       </c>
       <c r="T4">
-        <v>0.08329737447961391</v>
+        <v>0.0001098658707759437</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.47765198002846</v>
+        <v>0.022591</v>
       </c>
       <c r="H5">
-        <v>5.47765198002846</v>
+        <v>0.067773</v>
       </c>
       <c r="I5">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809983</v>
       </c>
       <c r="J5">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809984</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.196812463024097</v>
+        <v>0.244014</v>
       </c>
       <c r="N5">
-        <v>0.196812463024097</v>
+        <v>0.7320420000000001</v>
       </c>
       <c r="O5">
-        <v>0.07658626887187332</v>
+        <v>0.07835324626061321</v>
       </c>
       <c r="P5">
-        <v>0.07658626887187332</v>
+        <v>0.0783532462606132</v>
       </c>
       <c r="Q5">
-        <v>1.078070177778223</v>
+        <v>0.005512520274000001</v>
       </c>
       <c r="R5">
-        <v>1.078070177778223</v>
+        <v>0.04961268246600001</v>
       </c>
       <c r="S5">
-        <v>0.0730338708955483</v>
+        <v>0.0002977720044671981</v>
       </c>
       <c r="T5">
-        <v>0.0730338708955483</v>
+        <v>0.0002977720044671981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.47765198002846</v>
+        <v>0.022591</v>
       </c>
       <c r="H6">
-        <v>5.47765198002846</v>
+        <v>0.067773</v>
       </c>
       <c r="I6">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809983</v>
       </c>
       <c r="J6">
-        <v>0.9536157325764482</v>
+        <v>0.003800378652809984</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.28966615551644</v>
+        <v>0.2628333333333333</v>
       </c>
       <c r="N6">
-        <v>1.28966615551644</v>
+        <v>0.7885</v>
       </c>
       <c r="O6">
-        <v>0.5018519529896038</v>
+        <v>0.084396161253717</v>
       </c>
       <c r="P6">
-        <v>0.5018519529896038</v>
+        <v>0.084396161253717</v>
       </c>
       <c r="Q6">
-        <v>7.064342370340319</v>
+        <v>0.005937667833333333</v>
       </c>
       <c r="R6">
-        <v>7.064342370340319</v>
+        <v>0.0534390105</v>
       </c>
       <c r="S6">
-        <v>0.4785739177951023</v>
+        <v>0.0003207373696077351</v>
       </c>
       <c r="T6">
-        <v>0.4785739177951023</v>
+        <v>0.0003207373696077352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.266435279552626</v>
+        <v>0.022591</v>
       </c>
       <c r="H7">
-        <v>0.266435279552626</v>
+        <v>0.067773</v>
       </c>
       <c r="I7">
-        <v>0.04638426742355183</v>
+        <v>0.003800378652809983</v>
       </c>
       <c r="J7">
-        <v>0.04638426742355183</v>
+        <v>0.003800378652809984</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.337226695344671</v>
+        <v>1.528969</v>
       </c>
       <c r="N7">
-        <v>0.337226695344671</v>
+        <v>4.586907</v>
       </c>
       <c r="O7">
-        <v>0.1312261122268366</v>
+        <v>0.4909541443599282</v>
       </c>
       <c r="P7">
-        <v>0.1312261122268366</v>
+        <v>0.4909541443599281</v>
       </c>
       <c r="Q7">
-        <v>0.08984908884676567</v>
+        <v>0.034540938679</v>
       </c>
       <c r="R7">
-        <v>0.08984908884676567</v>
+        <v>0.310868448111</v>
       </c>
       <c r="S7">
-        <v>0.006086827082482613</v>
+        <v>0.001865811649734062</v>
       </c>
       <c r="T7">
-        <v>0.006086827082482613</v>
+        <v>0.001865811649734062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.266435279552626</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H8">
-        <v>0.266435279552626</v>
+        <v>16.449865</v>
       </c>
       <c r="I8">
-        <v>0.04638426742355183</v>
+        <v>0.9224280434333154</v>
       </c>
       <c r="J8">
-        <v>0.04638426742355183</v>
+        <v>0.9224280434333155</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.521637984665968</v>
+        <v>0.4581533333333334</v>
       </c>
       <c r="N8">
-        <v>0.521637984665968</v>
+        <v>1.37446</v>
       </c>
       <c r="O8">
-        <v>0.2029866723557979</v>
+        <v>0.1471136940986479</v>
       </c>
       <c r="P8">
-        <v>0.2029866723557979</v>
+        <v>0.1471136940986479</v>
       </c>
       <c r="Q8">
-        <v>0.1389827622697456</v>
+        <v>2.512186827544445</v>
       </c>
       <c r="R8">
-        <v>0.1389827622697456</v>
+        <v>22.6096814479</v>
       </c>
       <c r="S8">
-        <v>0.009415388093968222</v>
+        <v>0.1357017970096631</v>
       </c>
       <c r="T8">
-        <v>0.009415388093968222</v>
+        <v>0.1357017970096631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.266435279552626</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H9">
-        <v>0.266435279552626</v>
+        <v>16.449865</v>
       </c>
       <c r="I9">
-        <v>0.04638426742355183</v>
+        <v>0.9224280434333154</v>
       </c>
       <c r="J9">
-        <v>0.04638426742355183</v>
+        <v>0.9224280434333155</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.224470663183384</v>
+        <v>0.5302796666666666</v>
       </c>
       <c r="N9">
-        <v>0.224470663183384</v>
+        <v>1.590839</v>
       </c>
       <c r="O9">
-        <v>0.08734899355588835</v>
+        <v>0.1702735634403321</v>
       </c>
       <c r="P9">
-        <v>0.08734899355588835</v>
+        <v>0.1702735634403321</v>
       </c>
       <c r="Q9">
-        <v>0.05980690389662827</v>
+        <v>2.907676309637222</v>
       </c>
       <c r="R9">
-        <v>0.05980690389662827</v>
+        <v>26.169086786735</v>
       </c>
       <c r="S9">
-        <v>0.004051619076274431</v>
+        <v>0.1570651099726841</v>
       </c>
       <c r="T9">
-        <v>0.004051619076274431</v>
+        <v>0.1570651099726841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.266435279552626</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H10">
-        <v>0.266435279552626</v>
+        <v>16.449865</v>
       </c>
       <c r="I10">
-        <v>0.04638426742355183</v>
+        <v>0.9224280434333154</v>
       </c>
       <c r="J10">
-        <v>0.04638426742355183</v>
+        <v>0.9224280434333155</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.196812463024097</v>
+        <v>0.09003133333333334</v>
       </c>
       <c r="N10">
-        <v>0.196812463024097</v>
+        <v>0.270094</v>
       </c>
       <c r="O10">
-        <v>0.07658626887187332</v>
+        <v>0.0289091905867615</v>
       </c>
       <c r="P10">
-        <v>0.07658626887187332</v>
+        <v>0.0289091905867615</v>
       </c>
       <c r="Q10">
-        <v>0.05243778360526616</v>
+        <v>0.4936677597011112</v>
       </c>
       <c r="R10">
-        <v>0.05243778360526616</v>
+        <v>4.44300983731</v>
       </c>
       <c r="S10">
-        <v>0.003552397976325015</v>
+        <v>0.02666664811018723</v>
       </c>
       <c r="T10">
-        <v>0.003552397976325015</v>
+        <v>0.02666664811018723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1086,929 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.483288333333333</v>
+      </c>
+      <c r="H11">
+        <v>16.449865</v>
+      </c>
+      <c r="I11">
+        <v>0.9224280434333154</v>
+      </c>
+      <c r="J11">
+        <v>0.9224280434333155</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.244014</v>
+      </c>
+      <c r="N11">
+        <v>0.7320420000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.07835324626061321</v>
+      </c>
+      <c r="P11">
+        <v>0.0783532462606132</v>
+      </c>
+      <c r="Q11">
+        <v>1.33799911937</v>
+      </c>
+      <c r="R11">
+        <v>12.04199207433</v>
+      </c>
+      <c r="S11">
+        <v>0.07227523164482619</v>
+      </c>
+      <c r="T11">
+        <v>0.07227523164482617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.483288333333333</v>
+      </c>
+      <c r="H12">
+        <v>16.449865</v>
+      </c>
+      <c r="I12">
+        <v>0.9224280434333154</v>
+      </c>
+      <c r="J12">
+        <v>0.9224280434333155</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2628333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.7885</v>
+      </c>
+      <c r="O12">
+        <v>0.084396161253717</v>
+      </c>
+      <c r="P12">
+        <v>0.084396161253717</v>
+      </c>
+      <c r="Q12">
+        <v>1.441190950277778</v>
+      </c>
+      <c r="R12">
+        <v>12.9707185525</v>
+      </c>
+      <c r="S12">
+        <v>0.07784938589854876</v>
+      </c>
+      <c r="T12">
+        <v>0.07784938589854877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.483288333333333</v>
+      </c>
+      <c r="H13">
+        <v>16.449865</v>
+      </c>
+      <c r="I13">
+        <v>0.9224280434333154</v>
+      </c>
+      <c r="J13">
+        <v>0.9224280434333155</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.528969</v>
+      </c>
+      <c r="N13">
+        <v>4.586907</v>
+      </c>
+      <c r="O13">
+        <v>0.4909541443599282</v>
+      </c>
+      <c r="P13">
+        <v>0.4909541443599281</v>
+      </c>
+      <c r="Q13">
+        <v>8.383777879728333</v>
+      </c>
+      <c r="R13">
+        <v>75.45400091755499</v>
+      </c>
+      <c r="S13">
+        <v>0.452869870797406</v>
+      </c>
+      <c r="T13">
+        <v>0.452869870797406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1074633333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.32239</v>
+      </c>
+      <c r="I14">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="J14">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.4581533333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.37446</v>
+      </c>
+      <c r="O14">
+        <v>0.1471136940986479</v>
+      </c>
+      <c r="P14">
+        <v>0.1471136940986479</v>
+      </c>
+      <c r="Q14">
+        <v>0.04923468437777778</v>
+      </c>
+      <c r="R14">
+        <v>0.4431121594</v>
+      </c>
+      <c r="S14">
+        <v>0.002659529566835065</v>
+      </c>
+      <c r="T14">
+        <v>0.002659529566835064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.266435279552626</v>
-      </c>
-      <c r="H11">
-        <v>0.266435279552626</v>
-      </c>
-      <c r="I11">
-        <v>0.04638426742355183</v>
-      </c>
-      <c r="J11">
-        <v>0.04638426742355183</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.28966615551644</v>
-      </c>
-      <c r="N11">
-        <v>1.28966615551644</v>
-      </c>
-      <c r="O11">
-        <v>0.5018519529896038</v>
-      </c>
-      <c r="P11">
-        <v>0.5018519529896038</v>
-      </c>
-      <c r="Q11">
-        <v>0.3436125626745831</v>
-      </c>
-      <c r="R11">
-        <v>0.3436125626745831</v>
-      </c>
-      <c r="S11">
-        <v>0.02327803519450154</v>
-      </c>
-      <c r="T11">
-        <v>0.02327803519450154</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1074633333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.32239</v>
+      </c>
+      <c r="I15">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="J15">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5302796666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.590839</v>
+      </c>
+      <c r="O15">
+        <v>0.1702735634403321</v>
+      </c>
+      <c r="P15">
+        <v>0.1702735634403321</v>
+      </c>
+      <c r="Q15">
+        <v>0.05698562057888888</v>
+      </c>
+      <c r="R15">
+        <v>0.51287058521</v>
+      </c>
+      <c r="S15">
+        <v>0.003078214976481183</v>
+      </c>
+      <c r="T15">
+        <v>0.003078214976481183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1074633333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.32239</v>
+      </c>
+      <c r="I16">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="J16">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.09003133333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.270094</v>
+      </c>
+      <c r="O16">
+        <v>0.0289091905867615</v>
+      </c>
+      <c r="P16">
+        <v>0.0289091905867615</v>
+      </c>
+      <c r="Q16">
+        <v>0.009675067184444445</v>
+      </c>
+      <c r="R16">
+        <v>0.08707560466</v>
+      </c>
+      <c r="S16">
+        <v>0.000522621959769473</v>
+      </c>
+      <c r="T16">
+        <v>0.000522621959769473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1074633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.32239</v>
+      </c>
+      <c r="I17">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="J17">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.244014</v>
+      </c>
+      <c r="N17">
+        <v>0.7320420000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.07835324626061321</v>
+      </c>
+      <c r="P17">
+        <v>0.0783532462606132</v>
+      </c>
+      <c r="Q17">
+        <v>0.02622255782000001</v>
+      </c>
+      <c r="R17">
+        <v>0.23600302038</v>
+      </c>
+      <c r="S17">
+        <v>0.001416474355867086</v>
+      </c>
+      <c r="T17">
+        <v>0.001416474355867085</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1074633333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.32239</v>
+      </c>
+      <c r="I18">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="J18">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2628333333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.7885</v>
+      </c>
+      <c r="O18">
+        <v>0.084396161253717</v>
+      </c>
+      <c r="P18">
+        <v>0.084396161253717</v>
+      </c>
+      <c r="Q18">
+        <v>0.02824494611111111</v>
+      </c>
+      <c r="R18">
+        <v>0.254204515</v>
+      </c>
+      <c r="S18">
+        <v>0.001525718510141763</v>
+      </c>
+      <c r="T18">
+        <v>0.001525718510141763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1074633333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.32239</v>
+      </c>
+      <c r="I19">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="J19">
+        <v>0.01807805577264413</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.528969</v>
+      </c>
+      <c r="N19">
+        <v>4.586907</v>
+      </c>
+      <c r="O19">
+        <v>0.4909541443599282</v>
+      </c>
+      <c r="P19">
+        <v>0.4909541443599281</v>
+      </c>
+      <c r="Q19">
+        <v>0.1643081053033333</v>
+      </c>
+      <c r="R19">
+        <v>1.47877294773</v>
+      </c>
+      <c r="S19">
+        <v>0.008875496403549558</v>
+      </c>
+      <c r="T19">
+        <v>0.008875496403549557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.331065</v>
+      </c>
+      <c r="H20">
+        <v>0.9931950000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.05569352214123044</v>
+      </c>
+      <c r="J20">
+        <v>0.05569352214123046</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4581533333333334</v>
+      </c>
+      <c r="N20">
+        <v>1.37446</v>
+      </c>
+      <c r="O20">
+        <v>0.1471136940986479</v>
+      </c>
+      <c r="P20">
+        <v>0.1471136940986479</v>
+      </c>
+      <c r="Q20">
+        <v>0.1516785333</v>
+      </c>
+      <c r="R20">
+        <v>1.3651067997</v>
+      </c>
+      <c r="S20">
+        <v>0.00819327977956125</v>
+      </c>
+      <c r="T20">
+        <v>0.008193279779561252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.331065</v>
+      </c>
+      <c r="H21">
+        <v>0.9931950000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.05569352214123044</v>
+      </c>
+      <c r="J21">
+        <v>0.05569352214123046</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5302796666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.590839</v>
+      </c>
+      <c r="O21">
+        <v>0.1702735634403321</v>
+      </c>
+      <c r="P21">
+        <v>0.1702735634403321</v>
+      </c>
+      <c r="Q21">
+        <v>0.175557037845</v>
+      </c>
+      <c r="R21">
+        <v>1.580013340605</v>
+      </c>
+      <c r="S21">
+        <v>0.009483134475530345</v>
+      </c>
+      <c r="T21">
+        <v>0.009483134475530348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.331065</v>
+      </c>
+      <c r="H22">
+        <v>0.9931950000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.05569352214123044</v>
+      </c>
+      <c r="J22">
+        <v>0.05569352214123046</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.09003133333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.270094</v>
+      </c>
+      <c r="O22">
+        <v>0.0289091905867615</v>
+      </c>
+      <c r="P22">
+        <v>0.0289091905867615</v>
+      </c>
+      <c r="Q22">
+        <v>0.02980622337</v>
+      </c>
+      <c r="R22">
+        <v>0.26825601033</v>
+      </c>
+      <c r="S22">
+        <v>0.001610054646028852</v>
+      </c>
+      <c r="T22">
+        <v>0.001610054646028853</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.331065</v>
+      </c>
+      <c r="H23">
+        <v>0.9931950000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.05569352214123044</v>
+      </c>
+      <c r="J23">
+        <v>0.05569352214123046</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.244014</v>
+      </c>
+      <c r="N23">
+        <v>0.7320420000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.07835324626061321</v>
+      </c>
+      <c r="P23">
+        <v>0.0783532462606132</v>
+      </c>
+      <c r="Q23">
+        <v>0.08078449491000002</v>
+      </c>
+      <c r="R23">
+        <v>0.7270604541900001</v>
+      </c>
+      <c r="S23">
+        <v>0.004363768255452743</v>
+      </c>
+      <c r="T23">
+        <v>0.004363768255452744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.331065</v>
+      </c>
+      <c r="H24">
+        <v>0.9931950000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.05569352214123044</v>
+      </c>
+      <c r="J24">
+        <v>0.05569352214123046</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2628333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.7885</v>
+      </c>
+      <c r="O24">
+        <v>0.084396161253717</v>
+      </c>
+      <c r="P24">
+        <v>0.084396161253717</v>
+      </c>
+      <c r="Q24">
+        <v>0.0870149175</v>
+      </c>
+      <c r="R24">
+        <v>0.7831342575</v>
+      </c>
+      <c r="S24">
+        <v>0.004700319475418742</v>
+      </c>
+      <c r="T24">
+        <v>0.004700319475418744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.331065</v>
+      </c>
+      <c r="H25">
+        <v>0.9931950000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.05569352214123044</v>
+      </c>
+      <c r="J25">
+        <v>0.05569352214123046</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.528969</v>
+      </c>
+      <c r="N25">
+        <v>4.586907</v>
+      </c>
+      <c r="O25">
+        <v>0.4909541443599282</v>
+      </c>
+      <c r="P25">
+        <v>0.4909541443599281</v>
+      </c>
+      <c r="Q25">
+        <v>0.506188121985</v>
+      </c>
+      <c r="R25">
+        <v>4.555693097865</v>
+      </c>
+      <c r="S25">
+        <v>0.02734296550923851</v>
+      </c>
+      <c r="T25">
+        <v>0.02734296550923851</v>
       </c>
     </row>
   </sheetData>
